--- a/data_input/data_input_formatted.xlsx
+++ b/data_input/data_input_formatted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42dcc5b33b6ca4b2/Work/Guatemala/MVI_Guatemala/data_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MARTINEP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{ECEEC2CC-5245-4AD6-B9F4-51631B4D9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7C002F8-A83C-4E84-B2D2-8C0E21A91CD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6732D9F-C237-45A7-BF48-45537E25E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F725EFB9-CB3E-497E-B5BF-C7123ECF1AC1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F725EFB9-CB3E-497E-B5BF-C7123ECF1AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="iData" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Input_Template" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iMeta!$A$1:$I$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">iMeta!$A$1:$I$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="548">
   <si>
     <t>Level</t>
   </si>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>Promedio de personas por dormitorio (hacinamiento)</t>
-  </si>
-  <si>
-    <t># de personas en viviendas colectivas y sitaución de calle</t>
   </si>
   <si>
     <t>Coeficiente de Gini</t>
@@ -1714,6 +1711,15 @@
   <si>
     <t>uName</t>
   </si>
+  <si>
+    <t># de personas en viviendas colectivas y situación de calle</t>
+  </si>
+  <si>
+    <t>Mov_Hum</t>
+  </si>
+  <si>
+    <t>Movilidad Humana</t>
+  </si>
 </sst>
 </file>
 
@@ -1723,13 +1729,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1747,18 +1746,20 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -1887,9 +1888,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1904,10 +1904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1921,10 +1920,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2236,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D099658A-32B7-475F-AF63-D07765A62010}">
   <dimension ref="A1:BU341"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,16 +2242,16 @@
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" t="s">
         <v>544</v>
-      </c>
-      <c r="D1" t="s">
-        <v>545</v>
       </c>
       <c r="E1" t="s">
         <v>41</v>
@@ -2313,7 +2308,7 @@
         <v>58</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
         <v>59</v>
@@ -2439,31 +2434,31 @@
         <v>99</v>
       </c>
       <c r="BM1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN1" t="s">
         <v>174</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>175</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>176</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>177</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>178</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>179</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>180</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>181</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
@@ -2471,13 +2466,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2">
         <v>9.1</v>
@@ -2644,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3">
         <v>7.8</v>
@@ -2814,13 +2809,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4">
         <v>4.2</v>
@@ -2984,13 +2979,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F5">
         <v>2.5</v>
@@ -3154,13 +3149,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -3324,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7">
         <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F7">
         <v>7.2</v>
@@ -3494,13 +3489,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8">
         <v>7.4</v>
@@ -3664,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9">
         <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9">
         <v>9.1999999999999993</v>
@@ -3834,13 +3829,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10">
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10">
         <v>4.2</v>
@@ -4004,13 +3999,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11">
         <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11">
         <v>2.6</v>
@@ -4174,13 +4169,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12">
         <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12">
         <v>2.5</v>
@@ -4344,13 +4339,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13">
         <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13">
         <v>5.3</v>
@@ -4511,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14">
         <v>2.6</v>
@@ -4681,13 +4676,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15">
         <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15">
         <v>7.7</v>
@@ -4851,13 +4846,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F16">
         <v>8.1</v>
@@ -5021,13 +5016,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C17">
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17">
         <v>8.6999999999999993</v>
@@ -5191,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18">
         <v>4.5999999999999996</v>
@@ -5361,13 +5356,13 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F19">
         <v>5.0999999999999996</v>
@@ -5531,13 +5526,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20">
         <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F20">
         <v>4.3</v>
@@ -5698,13 +5693,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21">
         <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F21">
         <v>4.8</v>
@@ -5868,13 +5863,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22">
         <v>204</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22">
         <v>3.9</v>
@@ -6038,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23">
         <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23">
         <v>3.8</v>
@@ -6208,13 +6203,13 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24">
         <v>206</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F24">
         <v>2.2000000000000002</v>
@@ -6378,13 +6373,13 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <v>207</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F25">
         <v>6.3</v>
@@ -6548,13 +6543,13 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <v>208</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F26">
         <v>2.8</v>
@@ -6718,13 +6713,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27">
         <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27">
         <v>8.5</v>
@@ -6888,13 +6883,13 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28">
         <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F28">
         <v>3.7</v>
@@ -7058,13 +7053,13 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29">
         <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -7228,13 +7223,13 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C30">
         <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F30">
         <v>2.8</v>
@@ -7398,13 +7393,13 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C31">
         <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F31">
         <v>6.6</v>
@@ -7565,13 +7560,13 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32">
         <v>306</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F32">
         <v>6.5</v>
@@ -7735,13 +7730,13 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33">
         <v>307</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F33">
         <v>6.4</v>
@@ -7905,13 +7900,13 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34">
         <v>308</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F34">
         <v>5.5</v>
@@ -8075,13 +8070,13 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35">
         <v>309</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35">
         <v>4.5</v>
@@ -8245,13 +8240,13 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36">
         <v>310</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F36">
         <v>4.2</v>
@@ -8415,13 +8410,13 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37">
         <v>311</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37">
         <v>5.9</v>
@@ -8585,13 +8580,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38">
         <v>312</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38">
         <v>7</v>
@@ -8755,13 +8750,13 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C39">
         <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39">
         <v>3.4</v>
@@ -8925,13 +8920,13 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40">
         <v>314</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40">
         <v>8.9</v>
@@ -9095,13 +9090,13 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41">
         <v>315</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41">
         <v>6.3</v>
@@ -9262,13 +9257,13 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42">
         <v>316</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F42">
         <v>1.6</v>
@@ -9429,13 +9424,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43">
         <v>401</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F43">
         <v>7.8</v>
@@ -9599,13 +9594,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44">
         <v>402</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F44">
         <v>4.8</v>
@@ -9769,13 +9764,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45">
         <v>403</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F45">
         <v>5.2</v>
@@ -9939,13 +9934,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46">
         <v>404</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46">
         <v>4.2</v>
@@ -10109,13 +10104,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47">
         <v>405</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F47">
         <v>6.2</v>
@@ -10279,13 +10274,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C48">
         <v>406</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -10452,13 +10447,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49">
         <v>407</v>
       </c>
       <c r="D49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F49">
         <v>4.7</v>
@@ -10622,13 +10617,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C50">
         <v>408</v>
       </c>
       <c r="D50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F50">
         <v>4.5999999999999996</v>
@@ -10792,13 +10787,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C51">
         <v>409</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F51">
         <v>4.4000000000000004</v>
@@ -10962,13 +10957,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C52">
         <v>410</v>
       </c>
       <c r="D52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F52">
         <v>3.6</v>
@@ -11132,13 +11127,13 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>411</v>
       </c>
       <c r="D53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -11302,13 +11297,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54">
         <v>412</v>
       </c>
       <c r="D54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F54">
         <v>8.5</v>
@@ -11472,13 +11467,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55">
         <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55">
         <v>5.2</v>
@@ -11642,13 +11637,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56">
         <v>414</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56">
         <v>3.4</v>
@@ -11812,13 +11807,13 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57">
         <v>415</v>
       </c>
       <c r="D57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57">
         <v>4.7</v>
@@ -11982,13 +11977,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58">
         <v>416</v>
       </c>
       <c r="D58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58">
         <v>4.2</v>
@@ -12152,13 +12147,13 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59">
         <v>501</v>
       </c>
       <c r="D59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59">
         <v>8.4</v>
@@ -12322,13 +12317,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C60">
         <v>502</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60">
         <v>5.8</v>
@@ -12492,13 +12487,13 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <v>503</v>
       </c>
       <c r="D61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F61">
         <v>8.3000000000000007</v>
@@ -12662,13 +12657,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C62">
         <v>504</v>
       </c>
       <c r="D62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62">
         <v>7.5</v>
@@ -12832,13 +12827,13 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63">
         <v>505</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63">
         <v>9.1</v>
@@ -13002,13 +12997,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C64">
         <v>506</v>
       </c>
       <c r="D64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F64">
         <v>7.9</v>
@@ -13172,13 +13167,13 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65">
         <v>507</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65">
         <v>7.7</v>
@@ -13342,13 +13337,13 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66">
         <v>508</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F66">
         <v>7.2</v>
@@ -13512,13 +13507,13 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C67">
         <v>509</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F67">
         <v>7.8</v>
@@ -13682,13 +13677,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C68">
         <v>510</v>
       </c>
       <c r="D68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F68">
         <v>7.9</v>
@@ -13852,13 +13847,13 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69">
         <v>511</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F69">
         <v>9.1</v>
@@ -14022,13 +14017,13 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70">
         <v>512</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70">
         <v>8.4</v>
@@ -14192,13 +14187,13 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71">
         <v>513</v>
       </c>
       <c r="D71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71">
         <v>9</v>
@@ -14362,13 +14357,13 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72">
         <v>514</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F72">
         <v>7.7</v>
@@ -14529,13 +14524,13 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73">
         <v>601</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F73">
         <v>6.2</v>
@@ -14699,13 +14694,13 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74">
         <v>602</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F74">
         <v>5.8</v>
@@ -14869,13 +14864,13 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75">
         <v>603</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F75">
         <v>3.4</v>
@@ -15039,13 +15034,13 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76">
         <v>604</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F76">
         <v>3.6</v>
@@ -15209,13 +15204,13 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C77">
         <v>605</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F77">
         <v>2.2999999999999998</v>
@@ -15379,13 +15374,13 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78">
         <v>606</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F78">
         <v>3.2</v>
@@ -15549,13 +15544,13 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79">
         <v>607</v>
       </c>
       <c r="D79" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F79">
         <v>6.9</v>
@@ -15716,13 +15711,13 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80">
         <v>608</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F80">
         <v>6.4</v>
@@ -15886,13 +15881,13 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C81">
         <v>609</v>
       </c>
       <c r="D81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F81">
         <v>5.5</v>
@@ -16053,13 +16048,13 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82">
         <v>610</v>
       </c>
       <c r="D82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F82">
         <v>3.3</v>
@@ -16223,13 +16218,13 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83">
         <v>611</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F83">
         <v>4</v>
@@ -16393,13 +16388,13 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84">
         <v>612</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F84">
         <v>2.8</v>
@@ -16563,13 +16558,13 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85">
         <v>613</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -16730,13 +16725,13 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C86">
         <v>614</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F86">
         <v>3.1</v>
@@ -16900,13 +16895,13 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C87">
         <v>701</v>
       </c>
       <c r="D87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F87">
         <v>5.3</v>
@@ -17070,13 +17065,13 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C88">
         <v>702</v>
       </c>
       <c r="D88" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88">
         <v>4.2</v>
@@ -17237,13 +17232,13 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C89">
         <v>703</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89">
         <v>5</v>
@@ -17404,13 +17399,13 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90">
         <v>704</v>
       </c>
       <c r="D90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F90">
         <v>4.2</v>
@@ -17574,13 +17569,13 @@
         <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C91">
         <v>705</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F91">
         <v>3.7</v>
@@ -17747,13 +17742,13 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92">
         <v>706</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F92">
         <v>4.0999999999999996</v>
@@ -17914,13 +17909,13 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C93">
         <v>707</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F93">
         <v>5.7</v>
@@ -18084,13 +18079,13 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94">
         <v>708</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F94">
         <v>3.5</v>
@@ -18248,13 +18243,13 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95">
         <v>709</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F95">
         <v>3.3</v>
@@ -18418,13 +18413,13 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C96">
         <v>710</v>
       </c>
       <c r="D96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F96">
         <v>5.5</v>
@@ -18588,13 +18583,13 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97">
         <v>711</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F97">
         <v>1.9</v>
@@ -18755,13 +18750,13 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98">
         <v>712</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F98">
         <v>0.4</v>
@@ -18925,13 +18920,13 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99">
         <v>713</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F99">
         <v>5.8</v>
@@ -19095,13 +19090,13 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C100">
         <v>714</v>
       </c>
       <c r="D100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F100">
         <v>7</v>
@@ -19262,13 +19257,13 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C101">
         <v>715</v>
       </c>
       <c r="D101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F101">
         <v>6.9</v>
@@ -19429,13 +19424,13 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102">
         <v>716</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F102">
         <v>3.1</v>
@@ -19596,13 +19591,13 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C103">
         <v>717</v>
       </c>
       <c r="D103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F103">
         <v>5.7</v>
@@ -19766,13 +19761,13 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C104">
         <v>718</v>
       </c>
       <c r="D104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F104">
         <v>5.0999999999999996</v>
@@ -19936,13 +19931,13 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C105">
         <v>719</v>
       </c>
       <c r="D105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F105">
         <v>5.2</v>
@@ -20106,13 +20101,13 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C106">
         <v>801</v>
       </c>
       <c r="D106" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F106">
         <v>6.5</v>
@@ -20276,13 +20271,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C107">
         <v>802</v>
       </c>
       <c r="D107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F107">
         <v>4.3</v>
@@ -20446,13 +20441,13 @@
         <v>8</v>
       </c>
       <c r="B108" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C108">
         <v>803</v>
       </c>
       <c r="D108" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108">
         <v>5.9</v>
@@ -20613,13 +20608,13 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C109">
         <v>804</v>
       </c>
       <c r="D109" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F109">
         <v>4.3</v>
@@ -20783,13 +20778,13 @@
         <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C110">
         <v>805</v>
       </c>
       <c r="D110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F110">
         <v>6</v>
@@ -20953,13 +20948,13 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C111">
         <v>806</v>
       </c>
       <c r="D111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F111">
         <v>4.3</v>
@@ -21123,13 +21118,13 @@
         <v>8</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C112">
         <v>807</v>
       </c>
       <c r="D112" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F112">
         <v>3.3</v>
@@ -21290,13 +21285,13 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113">
         <v>808</v>
       </c>
       <c r="D113" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F113">
         <v>4.5999999999999996</v>
@@ -21457,13 +21452,13 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C114">
         <v>901</v>
       </c>
       <c r="D114" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F114">
         <v>8.6999999999999993</v>
@@ -21627,13 +21622,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C115">
         <v>902</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F115">
         <v>6</v>
@@ -21797,13 +21792,13 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C116">
         <v>903</v>
       </c>
       <c r="D116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F116">
         <v>6.2</v>
@@ -21967,13 +21962,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C117">
         <v>904</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F117">
         <v>5.6</v>
@@ -22137,13 +22132,13 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C118">
         <v>905</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F118">
         <v>7.6</v>
@@ -22307,13 +22302,13 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C119">
         <v>906</v>
       </c>
       <c r="D119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F119">
         <v>6.2</v>
@@ -22477,13 +22472,13 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C120">
         <v>907</v>
       </c>
       <c r="D120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F120">
         <v>5.7</v>
@@ -22644,13 +22639,13 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C121">
         <v>908</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F121">
         <v>5.3</v>
@@ -22814,13 +22809,13 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C122">
         <v>909</v>
       </c>
       <c r="D122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F122">
         <v>6.4</v>
@@ -22984,13 +22979,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C123">
         <v>910</v>
       </c>
       <c r="D123" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F123">
         <v>5.2</v>
@@ -23154,13 +23149,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C124">
         <v>911</v>
       </c>
       <c r="D124" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F124">
         <v>6</v>
@@ -23321,13 +23316,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C125">
         <v>912</v>
       </c>
       <c r="D125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F125">
         <v>5.7</v>
@@ -23491,13 +23486,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C126">
         <v>913</v>
       </c>
       <c r="D126" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F126">
         <v>6.7</v>
@@ -23658,13 +23653,13 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C127">
         <v>914</v>
       </c>
       <c r="D127" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F127">
         <v>8.6999999999999993</v>
@@ -23828,13 +23823,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C128">
         <v>915</v>
       </c>
       <c r="D128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F128">
         <v>5.6</v>
@@ -23995,13 +23990,13 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C129">
         <v>916</v>
       </c>
       <c r="D129" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F129">
         <v>8.4</v>
@@ -24159,13 +24154,13 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C130">
         <v>917</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F130">
         <v>5.0999999999999996</v>
@@ -24329,13 +24324,13 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C131">
         <v>918</v>
       </c>
       <c r="D131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F131">
         <v>6.1</v>
@@ -24496,13 +24491,13 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C132">
         <v>919</v>
       </c>
       <c r="D132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F132">
         <v>8.6</v>
@@ -24666,13 +24661,13 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C133">
         <v>920</v>
       </c>
       <c r="D133" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F133">
         <v>8.4</v>
@@ -24839,13 +24834,13 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C134">
         <v>921</v>
       </c>
       <c r="D134" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F134">
         <v>5.8</v>
@@ -25009,13 +25004,13 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C135">
         <v>922</v>
       </c>
       <c r="D135" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F135">
         <v>6.4</v>
@@ -25179,13 +25174,13 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136">
         <v>923</v>
       </c>
       <c r="D136" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F136">
         <v>6</v>
@@ -25349,13 +25344,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C137">
         <v>924</v>
       </c>
       <c r="D137" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F137">
         <v>8.1999999999999993</v>
@@ -25519,13 +25514,13 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C138">
         <v>1001</v>
       </c>
       <c r="D138" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F138">
         <v>9</v>
@@ -25692,13 +25687,13 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C139">
         <v>1002</v>
       </c>
       <c r="D139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F139">
         <v>7.6</v>
@@ -25859,13 +25854,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C140">
         <v>1003</v>
       </c>
       <c r="D140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F140">
         <v>3.4</v>
@@ -26029,13 +26024,13 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C141">
         <v>1004</v>
       </c>
       <c r="D141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F141">
         <v>3.9</v>
@@ -26196,13 +26191,13 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C142">
         <v>1005</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F142">
         <v>5.7</v>
@@ -26366,13 +26361,13 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C143">
         <v>1006</v>
       </c>
       <c r="D143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F143">
         <v>6.9</v>
@@ -26536,13 +26531,13 @@
         <v>10</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C144">
         <v>1007</v>
       </c>
       <c r="D144" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F144">
         <v>7.5</v>
@@ -26703,13 +26698,13 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C145">
         <v>1008</v>
       </c>
       <c r="D145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F145">
         <v>7</v>
@@ -26873,13 +26868,13 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146">
         <v>1009</v>
       </c>
       <c r="D146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F146">
         <v>7.2</v>
@@ -27043,13 +27038,13 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C147">
         <v>1010</v>
       </c>
       <c r="D147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F147">
         <v>5.2</v>
@@ -27213,13 +27208,13 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C148">
         <v>1011</v>
       </c>
       <c r="D148" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F148">
         <v>5.9</v>
@@ -27380,13 +27375,13 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C149">
         <v>1012</v>
       </c>
       <c r="D149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F149">
         <v>6.5</v>
@@ -27550,13 +27545,13 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C150">
         <v>1013</v>
       </c>
       <c r="D150" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F150">
         <v>7.4</v>
@@ -27720,13 +27715,13 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C151">
         <v>1014</v>
       </c>
       <c r="D151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F151">
         <v>5.3</v>
@@ -27890,13 +27885,13 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C152">
         <v>1015</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F152">
         <v>5.2</v>
@@ -28060,13 +28055,13 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C153">
         <v>1016</v>
       </c>
       <c r="D153" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F153">
         <v>3.4</v>
@@ -28227,13 +28222,13 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C154">
         <v>1017</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -28397,13 +28392,13 @@
         <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C155">
         <v>1018</v>
       </c>
       <c r="D155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F155">
         <v>3.7</v>
@@ -28567,13 +28562,13 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C156">
         <v>1019</v>
       </c>
       <c r="D156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F156">
         <v>3.5</v>
@@ -28734,13 +28729,13 @@
         <v>10</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C157">
         <v>1020</v>
       </c>
       <c r="D157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F157">
         <v>7.5</v>
@@ -28901,13 +28896,13 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C158">
         <v>1021</v>
       </c>
       <c r="D158" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F158">
         <v>3.5</v>
@@ -29071,13 +29066,13 @@
         <v>11</v>
       </c>
       <c r="B159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C159">
         <v>1101</v>
       </c>
       <c r="D159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F159">
         <v>9.1</v>
@@ -29241,13 +29236,13 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C160">
         <v>1102</v>
       </c>
       <c r="D160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F160">
         <v>4.3</v>
@@ -29411,13 +29406,13 @@
         <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C161">
         <v>1103</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F161">
         <v>7</v>
@@ -29578,13 +29573,13 @@
         <v>11</v>
       </c>
       <c r="B162" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C162">
         <v>1104</v>
       </c>
       <c r="D162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F162">
         <v>2.2000000000000002</v>
@@ -29748,13 +29743,13 @@
         <v>11</v>
       </c>
       <c r="B163" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C163">
         <v>1105</v>
       </c>
       <c r="D163" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F163">
         <v>8.8000000000000007</v>
@@ -29918,13 +29913,13 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C164">
         <v>1106</v>
       </c>
       <c r="D164" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F164">
         <v>7.3</v>
@@ -30088,13 +30083,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C165">
         <v>1107</v>
       </c>
       <c r="D165" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F165">
         <v>7.8</v>
@@ -30258,13 +30253,13 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C166">
         <v>1108</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F166">
         <v>4</v>
@@ -30428,13 +30423,13 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C167">
         <v>1109</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F167">
         <v>5.8</v>
@@ -30598,13 +30593,13 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C168">
         <v>1201</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F168">
         <v>9.3000000000000007</v>
@@ -30768,13 +30763,13 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C169">
         <v>1202</v>
       </c>
       <c r="D169" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F169">
         <v>4.2</v>
@@ -30938,13 +30933,13 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C170">
         <v>1203</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F170">
         <v>5.0999999999999996</v>
@@ -31105,13 +31100,13 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C171">
         <v>1204</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F171">
         <v>7.3</v>
@@ -31278,13 +31273,13 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C172">
         <v>1205</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F172">
         <v>5.6</v>
@@ -31451,13 +31446,13 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C173">
         <v>1206</v>
       </c>
       <c r="D173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F173">
         <v>4.2</v>
@@ -31624,13 +31619,13 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C174">
         <v>1207</v>
       </c>
       <c r="D174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F174">
         <v>5.6</v>
@@ -31797,13 +31792,13 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C175">
         <v>1208</v>
       </c>
       <c r="D175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F175">
         <v>7.9</v>
@@ -31961,13 +31956,13 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C176">
         <v>1209</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F176">
         <v>7.9</v>
@@ -32131,13 +32126,13 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C177">
         <v>1210</v>
       </c>
       <c r="D177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F177">
         <v>4.7</v>
@@ -32301,13 +32296,13 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C178">
         <v>1211</v>
       </c>
       <c r="D178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F178">
         <v>5.3</v>
@@ -32471,13 +32466,13 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C179">
         <v>1212</v>
       </c>
       <c r="D179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F179">
         <v>5.4</v>
@@ -32641,13 +32636,13 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C180">
         <v>1213</v>
       </c>
       <c r="D180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F180">
         <v>5.7</v>
@@ -32811,13 +32806,13 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C181">
         <v>1214</v>
       </c>
       <c r="D181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F181">
         <v>7.4</v>
@@ -32978,13 +32973,13 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C182">
         <v>1215</v>
       </c>
       <c r="D182" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F182">
         <v>5.2</v>
@@ -33151,13 +33146,13 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C183">
         <v>1216</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F183">
         <v>6</v>
@@ -33321,13 +33316,13 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C184">
         <v>1217</v>
       </c>
       <c r="D184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F184">
         <v>3.6</v>
@@ -33491,13 +33486,13 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C185">
         <v>1218</v>
       </c>
       <c r="D185" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F185">
         <v>5.6</v>
@@ -33658,13 +33653,13 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C186">
         <v>1219</v>
       </c>
       <c r="D186" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F186">
         <v>6</v>
@@ -33828,13 +33823,13 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C187">
         <v>1220</v>
       </c>
       <c r="D187" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F187">
         <v>7.4</v>
@@ -33998,13 +33993,13 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C188">
         <v>1221</v>
       </c>
       <c r="D188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F188">
         <v>6.8</v>
@@ -34168,13 +34163,13 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C189">
         <v>1222</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F189">
         <v>5.4</v>
@@ -34338,13 +34333,13 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C190">
         <v>1223</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F190">
         <v>3.8</v>
@@ -34508,13 +34503,13 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C191">
         <v>1224</v>
       </c>
       <c r="D191" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F191">
         <v>5.3</v>
@@ -34675,13 +34670,13 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C192">
         <v>1225</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F192">
         <v>4.5</v>
@@ -34842,13 +34837,13 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C193">
         <v>1226</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F193">
         <v>7</v>
@@ -35012,13 +35007,13 @@
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C194">
         <v>1227</v>
       </c>
       <c r="D194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F194">
         <v>7.6</v>
@@ -35179,13 +35174,13 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C195">
         <v>1228</v>
       </c>
       <c r="D195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F195">
         <v>5.3</v>
@@ -35349,13 +35344,13 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C196">
         <v>1229</v>
       </c>
       <c r="D196" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F196">
         <v>7.5</v>
@@ -35519,13 +35514,13 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C197">
         <v>1230</v>
       </c>
       <c r="D197" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F197">
         <v>5.6</v>
@@ -35689,13 +35684,13 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C198">
         <v>1301</v>
       </c>
       <c r="D198" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F198">
         <v>9.1</v>
@@ -35862,13 +35857,13 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C199">
         <v>1302</v>
       </c>
       <c r="D199" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F199">
         <v>9.3000000000000007</v>
@@ -36035,13 +36030,13 @@
         <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C200">
         <v>1303</v>
       </c>
       <c r="D200" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F200">
         <v>6.5</v>
@@ -36205,13 +36200,13 @@
         <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C201">
         <v>1304</v>
       </c>
       <c r="D201" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F201">
         <v>9.3000000000000007</v>
@@ -36378,13 +36373,13 @@
         <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C202">
         <v>1305</v>
       </c>
       <c r="D202" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F202">
         <v>3.7</v>
@@ -36548,13 +36543,13 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C203">
         <v>1306</v>
       </c>
       <c r="D203" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F203">
         <v>8.8000000000000007</v>
@@ -36721,13 +36716,13 @@
         <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C204">
         <v>1307</v>
       </c>
       <c r="D204" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F204">
         <v>7.2</v>
@@ -36891,13 +36886,13 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C205">
         <v>1308</v>
       </c>
       <c r="D205" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F205">
         <v>7</v>
@@ -37064,13 +37059,13 @@
         <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C206">
         <v>1309</v>
       </c>
       <c r="D206" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F206">
         <v>8</v>
@@ -37234,13 +37229,13 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C207">
         <v>1310</v>
       </c>
       <c r="D207" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F207">
         <v>5.2</v>
@@ -37401,13 +37396,13 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C208">
         <v>1311</v>
       </c>
       <c r="D208" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F208">
         <v>5.9</v>
@@ -37574,13 +37569,13 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C209">
         <v>1312</v>
       </c>
       <c r="D209" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F209">
         <v>8.3000000000000007</v>
@@ -37744,13 +37739,13 @@
         <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C210">
         <v>1313</v>
       </c>
       <c r="D210" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F210">
         <v>7</v>
@@ -37917,13 +37912,13 @@
         <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C211">
         <v>1314</v>
       </c>
       <c r="D211" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F211">
         <v>6.3</v>
@@ -38084,13 +38079,13 @@
         <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C212">
         <v>1315</v>
       </c>
       <c r="D212" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F212">
         <v>5.3</v>
@@ -38254,13 +38249,13 @@
         <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C213">
         <v>1316</v>
       </c>
       <c r="D213" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F213">
         <v>6.3</v>
@@ -38421,13 +38416,13 @@
         <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C214">
         <v>1317</v>
       </c>
       <c r="D214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F214">
         <v>7</v>
@@ -38594,13 +38589,13 @@
         <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C215">
         <v>1318</v>
       </c>
       <c r="D215" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F215">
         <v>4</v>
@@ -38761,13 +38756,13 @@
         <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C216">
         <v>1319</v>
       </c>
       <c r="D216" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F216">
         <v>5.9</v>
@@ -38931,13 +38926,13 @@
         <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C217">
         <v>1320</v>
       </c>
       <c r="D217" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F217">
         <v>8.1999999999999993</v>
@@ -39101,13 +39096,13 @@
         <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C218">
         <v>1321</v>
       </c>
       <c r="D218" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F218">
         <v>8.1</v>
@@ -39268,13 +39263,13 @@
         <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C219">
         <v>1322</v>
       </c>
       <c r="D219" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F219">
         <v>5.9</v>
@@ -39435,13 +39430,13 @@
         <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C220">
         <v>1323</v>
       </c>
       <c r="D220" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F220">
         <v>7.2</v>
@@ -39608,13 +39603,13 @@
         <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C221">
         <v>1324</v>
       </c>
       <c r="D221" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F221">
         <v>6.7</v>
@@ -39778,13 +39773,13 @@
         <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C222">
         <v>1325</v>
       </c>
       <c r="D222" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F222">
         <v>6.9</v>
@@ -39948,13 +39943,13 @@
         <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C223">
         <v>1326</v>
       </c>
       <c r="D223" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F223">
         <v>6.3</v>
@@ -40118,13 +40113,13 @@
         <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C224">
         <v>1327</v>
       </c>
       <c r="D224" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F224">
         <v>8.1</v>
@@ -40288,13 +40283,13 @@
         <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C225">
         <v>1328</v>
       </c>
       <c r="D225" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F225">
         <v>4.5</v>
@@ -40455,13 +40450,13 @@
         <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C226">
         <v>1329</v>
       </c>
       <c r="D226" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F226">
         <v>2.4</v>
@@ -40622,13 +40617,13 @@
         <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C227">
         <v>1330</v>
       </c>
       <c r="D227" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F227">
         <v>7.6</v>
@@ -40789,13 +40784,13 @@
         <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C228">
         <v>1331</v>
       </c>
       <c r="D228" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F228">
         <v>6.9</v>
@@ -40956,13 +40951,13 @@
         <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C229">
         <v>1332</v>
       </c>
       <c r="D229" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F229">
         <v>4.3</v>
@@ -41123,13 +41118,13 @@
         <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C230">
         <v>1333</v>
       </c>
       <c r="D230" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F230">
         <v>5.9</v>
@@ -41293,13 +41288,13 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C231">
         <v>1401</v>
       </c>
       <c r="D231" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F231">
         <v>6.7</v>
@@ -41463,13 +41458,13 @@
         <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C232">
         <v>1402</v>
       </c>
       <c r="D232" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F232">
         <v>5.9</v>
@@ -41633,13 +41628,13 @@
         <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C233">
         <v>1403</v>
       </c>
       <c r="D233" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F233">
         <v>5</v>
@@ -41803,13 +41798,13 @@
         <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C234">
         <v>1404</v>
       </c>
       <c r="D234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F234">
         <v>4</v>
@@ -41973,13 +41968,13 @@
         <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C235">
         <v>1405</v>
       </c>
       <c r="D235" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F235">
         <v>4.3</v>
@@ -42140,13 +42135,13 @@
         <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C236">
         <v>1406</v>
       </c>
       <c r="D236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F236">
         <v>6.3</v>
@@ -42313,13 +42308,13 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C237">
         <v>1407</v>
       </c>
       <c r="D237" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F237">
         <v>4.9000000000000004</v>
@@ -42477,13 +42472,13 @@
         <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C238">
         <v>1408</v>
       </c>
       <c r="D238" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F238">
         <v>3.8</v>
@@ -42644,13 +42639,13 @@
         <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C239">
         <v>1409</v>
       </c>
       <c r="D239" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F239">
         <v>3.1</v>
@@ -42811,13 +42806,13 @@
         <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C240">
         <v>1410</v>
       </c>
       <c r="D240" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F240">
         <v>4.5</v>
@@ -42981,13 +42976,13 @@
         <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C241">
         <v>1411</v>
       </c>
       <c r="D241" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F241">
         <v>5.3</v>
@@ -43148,13 +43143,13 @@
         <v>14</v>
       </c>
       <c r="B242" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C242">
         <v>1412</v>
       </c>
       <c r="D242" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F242">
         <v>5.9</v>
@@ -43321,13 +43316,13 @@
         <v>14</v>
       </c>
       <c r="B243" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C243">
         <v>1413</v>
       </c>
       <c r="D243" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F243">
         <v>4.9000000000000004</v>
@@ -43494,13 +43489,13 @@
         <v>14</v>
       </c>
       <c r="B244" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C244">
         <v>1414</v>
       </c>
       <c r="D244" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F244">
         <v>3</v>
@@ -43661,13 +43656,13 @@
         <v>14</v>
       </c>
       <c r="B245" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C245">
         <v>1415</v>
       </c>
       <c r="D245" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F245">
         <v>3.8</v>
@@ -43834,13 +43829,13 @@
         <v>14</v>
       </c>
       <c r="B246" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C246">
         <v>1416</v>
       </c>
       <c r="D246" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F246">
         <v>4.0999999999999996</v>
@@ -44004,13 +43999,13 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C247">
         <v>1417</v>
       </c>
       <c r="D247" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F247">
         <v>3.1</v>
@@ -44171,13 +44166,13 @@
         <v>14</v>
       </c>
       <c r="B248" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C248">
         <v>1418</v>
       </c>
       <c r="D248" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F248">
         <v>2.2999999999999998</v>
@@ -44341,13 +44336,13 @@
         <v>14</v>
       </c>
       <c r="B249" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C249">
         <v>1419</v>
       </c>
       <c r="D249" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F249">
         <v>4.4000000000000004</v>
@@ -44511,13 +44506,13 @@
         <v>14</v>
       </c>
       <c r="B250" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C250">
         <v>1420</v>
       </c>
       <c r="D250" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F250">
         <v>6.8</v>
@@ -44684,13 +44679,13 @@
         <v>14</v>
       </c>
       <c r="B251" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C251">
         <v>1421</v>
       </c>
       <c r="D251" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -44854,13 +44849,13 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C252">
         <v>1501</v>
       </c>
       <c r="D252" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F252">
         <v>4.9000000000000004</v>
@@ -45024,13 +45019,13 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C253">
         <v>1502</v>
       </c>
       <c r="D253" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F253">
         <v>3.5</v>
@@ -45194,13 +45189,13 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C254">
         <v>1503</v>
       </c>
       <c r="D254" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F254">
         <v>5.8</v>
@@ -45364,13 +45359,13 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C255">
         <v>1504</v>
       </c>
       <c r="D255" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F255">
         <v>4.2</v>
@@ -45534,13 +45529,13 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C256">
         <v>1505</v>
       </c>
       <c r="D256" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F256">
         <v>4.2</v>
@@ -45704,13 +45699,13 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C257">
         <v>1506</v>
       </c>
       <c r="D257" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F257">
         <v>1.3</v>
@@ -45871,13 +45866,13 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C258">
         <v>1507</v>
       </c>
       <c r="D258" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F258">
         <v>4</v>
@@ -46038,13 +46033,13 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C259">
         <v>1508</v>
       </c>
       <c r="D259" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F259">
         <v>4.5999999999999996</v>
@@ -46208,13 +46203,13 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C260">
         <v>1601</v>
       </c>
       <c r="D260" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F260">
         <v>8.1</v>
@@ -46381,13 +46376,13 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C261">
         <v>1602</v>
       </c>
       <c r="D261" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F261">
         <v>6.9</v>
@@ -46551,13 +46546,13 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C262">
         <v>1603</v>
       </c>
       <c r="D262" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F262">
         <v>5.6</v>
@@ -46721,13 +46716,13 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C263">
         <v>1604</v>
       </c>
       <c r="D263" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F263">
         <v>8</v>
@@ -46891,13 +46886,13 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C264">
         <v>1605</v>
       </c>
       <c r="D264" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F264">
         <v>5.4</v>
@@ -47058,13 +47053,13 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C265">
         <v>1606</v>
       </c>
       <c r="D265" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F265">
         <v>5.7</v>
@@ -47225,13 +47220,13 @@
         <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C266">
         <v>1607</v>
       </c>
       <c r="D266" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F266">
         <v>7.2</v>
@@ -47392,13 +47387,13 @@
         <v>16</v>
       </c>
       <c r="B267" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C267">
         <v>1608</v>
       </c>
       <c r="D267" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F267">
         <v>4.5</v>
@@ -47559,13 +47554,13 @@
         <v>16</v>
       </c>
       <c r="B268" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C268">
         <v>1609</v>
       </c>
       <c r="D268" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F268">
         <v>5.4</v>
@@ -47732,13 +47727,13 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C269">
         <v>1610</v>
       </c>
       <c r="D269" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F269">
         <v>5.9</v>
@@ -47902,13 +47897,13 @@
         <v>16</v>
       </c>
       <c r="B270" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C270">
         <v>1611</v>
       </c>
       <c r="D270" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F270">
         <v>6.6</v>
@@ -48069,13 +48064,13 @@
         <v>16</v>
       </c>
       <c r="B271" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C271">
         <v>1612</v>
       </c>
       <c r="D271" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F271">
         <v>3.7</v>
@@ -48239,13 +48234,13 @@
         <v>16</v>
       </c>
       <c r="B272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C272">
         <v>1613</v>
       </c>
       <c r="D272" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F272">
         <v>8.1</v>
@@ -48412,13 +48407,13 @@
         <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C273">
         <v>1614</v>
       </c>
       <c r="D273" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F273">
         <v>4.5</v>
@@ -48579,13 +48574,13 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C274">
         <v>1615</v>
       </c>
       <c r="D274" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F274">
         <v>2.5</v>
@@ -48752,13 +48747,13 @@
         <v>16</v>
       </c>
       <c r="B275" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C275">
         <v>1616</v>
       </c>
       <c r="D275" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F275">
         <v>2.7</v>
@@ -48919,13 +48914,13 @@
         <v>16</v>
       </c>
       <c r="B276" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C276">
         <v>1617</v>
       </c>
       <c r="D276" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F276">
         <v>5.2</v>
@@ -49089,13 +49084,13 @@
         <v>17</v>
       </c>
       <c r="B277" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C277">
         <v>1701</v>
       </c>
       <c r="D277" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F277">
         <v>4.5</v>
@@ -49256,13 +49251,13 @@
         <v>17</v>
       </c>
       <c r="B278" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C278">
         <v>1702</v>
       </c>
       <c r="D278" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F278">
         <v>7.8</v>
@@ -49426,13 +49421,13 @@
         <v>17</v>
       </c>
       <c r="B279" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C279">
         <v>1703</v>
       </c>
       <c r="D279" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F279">
         <v>2.7</v>
@@ -49596,13 +49591,13 @@
         <v>17</v>
       </c>
       <c r="B280" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C280">
         <v>1704</v>
       </c>
       <c r="D280" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F280">
         <v>3.7</v>
@@ -49766,13 +49761,13 @@
         <v>17</v>
       </c>
       <c r="B281" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C281">
         <v>1705</v>
       </c>
       <c r="D281" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F281">
         <v>5.9</v>
@@ -49939,13 +49934,13 @@
         <v>17</v>
       </c>
       <c r="B282" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C282">
         <v>1706</v>
       </c>
       <c r="D282" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F282">
         <v>3.1</v>
@@ -50109,13 +50104,13 @@
         <v>17</v>
       </c>
       <c r="B283" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C283">
         <v>1707</v>
       </c>
       <c r="D283" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F283">
         <v>3</v>
@@ -50279,13 +50274,13 @@
         <v>17</v>
       </c>
       <c r="B284" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C284">
         <v>1708</v>
       </c>
       <c r="D284" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F284">
         <v>3.5</v>
@@ -50449,13 +50444,13 @@
         <v>17</v>
       </c>
       <c r="B285" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C285">
         <v>1709</v>
       </c>
       <c r="D285" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F285">
         <v>3.8</v>
@@ -50622,13 +50617,13 @@
         <v>17</v>
       </c>
       <c r="B286" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C286">
         <v>1710</v>
       </c>
       <c r="D286" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F286">
         <v>3.7</v>
@@ -50795,13 +50790,13 @@
         <v>17</v>
       </c>
       <c r="B287" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C287">
         <v>1711</v>
       </c>
       <c r="D287" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F287">
         <v>5.7</v>
@@ -50965,13 +50960,13 @@
         <v>17</v>
       </c>
       <c r="B288" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C288">
         <v>1712</v>
       </c>
       <c r="D288" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F288">
         <v>2.1</v>
@@ -51135,13 +51130,13 @@
         <v>17</v>
       </c>
       <c r="B289" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C289">
         <v>1713</v>
       </c>
       <c r="D289" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F289">
         <v>3.9</v>
@@ -51305,13 +51300,13 @@
         <v>17</v>
       </c>
       <c r="B290" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C290">
         <v>1714</v>
       </c>
       <c r="D290" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F290">
         <v>2.2000000000000002</v>
@@ -51475,13 +51470,13 @@
         <v>18</v>
       </c>
       <c r="B291" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C291">
         <v>1801</v>
       </c>
       <c r="D291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F291">
         <v>7.3</v>
@@ -51645,13 +51640,13 @@
         <v>18</v>
       </c>
       <c r="B292" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C292">
         <v>1802</v>
       </c>
       <c r="D292" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F292">
         <v>7.2</v>
@@ -51818,13 +51813,13 @@
         <v>18</v>
       </c>
       <c r="B293" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C293">
         <v>1803</v>
       </c>
       <c r="D293" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F293">
         <v>7.2</v>
@@ -51988,13 +51983,13 @@
         <v>18</v>
       </c>
       <c r="B294" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C294">
         <v>1804</v>
       </c>
       <c r="D294" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F294">
         <v>6.6</v>
@@ -52158,13 +52153,13 @@
         <v>18</v>
       </c>
       <c r="B295" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C295">
         <v>1805</v>
       </c>
       <c r="D295" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F295">
         <v>6.5</v>
@@ -52328,13 +52323,13 @@
         <v>19</v>
       </c>
       <c r="B296" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C296">
         <v>1901</v>
       </c>
       <c r="D296" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F296">
         <v>2.7</v>
@@ -52498,13 +52493,13 @@
         <v>19</v>
       </c>
       <c r="B297" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C297">
         <v>1902</v>
       </c>
       <c r="D297" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F297">
         <v>1.6</v>
@@ -52668,13 +52663,13 @@
         <v>19</v>
       </c>
       <c r="B298" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C298">
         <v>1903</v>
       </c>
       <c r="D298" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F298">
         <v>1.6</v>
@@ -52838,13 +52833,13 @@
         <v>19</v>
       </c>
       <c r="B299" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C299">
         <v>1904</v>
       </c>
       <c r="D299" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F299">
         <v>0.7</v>
@@ -53008,13 +53003,13 @@
         <v>19</v>
       </c>
       <c r="B300" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C300">
         <v>1905</v>
       </c>
       <c r="D300" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F300">
         <v>1.5</v>
@@ -53178,13 +53173,13 @@
         <v>19</v>
       </c>
       <c r="B301" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C301">
         <v>1906</v>
       </c>
       <c r="D301" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F301">
         <v>1.5</v>
@@ -53345,13 +53340,13 @@
         <v>19</v>
       </c>
       <c r="B302" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C302">
         <v>1907</v>
       </c>
       <c r="D302" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F302">
         <v>2</v>
@@ -53515,13 +53510,13 @@
         <v>19</v>
       </c>
       <c r="B303" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C303">
         <v>1908</v>
       </c>
       <c r="D303" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F303">
         <v>1.7</v>
@@ -53685,13 +53680,13 @@
         <v>19</v>
       </c>
       <c r="B304" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C304">
         <v>1909</v>
       </c>
       <c r="D304" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F304">
         <v>0.6</v>
@@ -53855,13 +53850,13 @@
         <v>19</v>
       </c>
       <c r="B305" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C305">
         <v>1910</v>
       </c>
       <c r="D305" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F305">
         <v>2</v>
@@ -54022,13 +54017,13 @@
         <v>19</v>
       </c>
       <c r="B306" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C306">
         <v>1911</v>
       </c>
       <c r="D306" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F306">
         <v>2.7</v>
@@ -54189,13 +54184,13 @@
         <v>20</v>
       </c>
       <c r="B307" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C307">
         <v>2001</v>
       </c>
       <c r="D307" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F307">
         <v>6.7</v>
@@ -54359,13 +54354,13 @@
         <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C308">
         <v>2002</v>
       </c>
       <c r="D308" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F308">
         <v>2.9</v>
@@ -54526,13 +54521,13 @@
         <v>20</v>
       </c>
       <c r="B309" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C309">
         <v>2003</v>
       </c>
       <c r="D309" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F309">
         <v>2.5</v>
@@ -54693,13 +54688,13 @@
         <v>20</v>
       </c>
       <c r="B310" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C310">
         <v>2004</v>
       </c>
       <c r="D310" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F310">
         <v>1.4</v>
@@ -54866,13 +54861,13 @@
         <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C311">
         <v>2005</v>
       </c>
       <c r="D311" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F311">
         <v>3.9</v>
@@ -55036,13 +55031,13 @@
         <v>20</v>
       </c>
       <c r="B312" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C312">
         <v>2006</v>
       </c>
       <c r="D312" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F312">
         <v>3</v>
@@ -55203,13 +55198,13 @@
         <v>20</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C313">
         <v>2007</v>
       </c>
       <c r="D313" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F313">
         <v>3.3</v>
@@ -55376,13 +55371,13 @@
         <v>20</v>
       </c>
       <c r="B314" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C314">
         <v>2008</v>
       </c>
       <c r="D314" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F314">
         <v>6.5</v>
@@ -55546,13 +55541,13 @@
         <v>20</v>
       </c>
       <c r="B315" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C315">
         <v>2009</v>
       </c>
       <c r="D315" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F315">
         <v>3.4</v>
@@ -55716,13 +55711,13 @@
         <v>20</v>
       </c>
       <c r="B316" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C316">
         <v>2010</v>
       </c>
       <c r="D316" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F316">
         <v>5.6</v>
@@ -55883,13 +55878,13 @@
         <v>20</v>
       </c>
       <c r="B317" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C317">
         <v>2011</v>
       </c>
       <c r="D317" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F317">
         <v>1.8</v>
@@ -56053,13 +56048,13 @@
         <v>21</v>
       </c>
       <c r="B318" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C318">
         <v>2101</v>
       </c>
       <c r="D318" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F318">
         <v>7.2</v>
@@ -56226,13 +56221,13 @@
         <v>21</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C319">
         <v>2102</v>
       </c>
       <c r="D319" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F319">
         <v>2.9</v>
@@ -56396,13 +56391,13 @@
         <v>21</v>
       </c>
       <c r="B320" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C320">
         <v>2103</v>
       </c>
       <c r="D320" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F320">
         <v>3.2</v>
@@ -56563,13 +56558,13 @@
         <v>21</v>
       </c>
       <c r="B321" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C321">
         <v>2104</v>
       </c>
       <c r="D321" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F321">
         <v>6.4</v>
@@ -56733,13 +56728,13 @@
         <v>21</v>
       </c>
       <c r="B322" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C322">
         <v>2105</v>
       </c>
       <c r="D322" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F322">
         <v>6.5</v>
@@ -56900,13 +56895,13 @@
         <v>21</v>
       </c>
       <c r="B323" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C323">
         <v>2106</v>
       </c>
       <c r="D323" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F323">
         <v>3</v>
@@ -57070,13 +57065,13 @@
         <v>21</v>
       </c>
       <c r="B324" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C324">
         <v>2107</v>
       </c>
       <c r="D324" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F324">
         <v>5.8</v>
@@ -57240,13 +57235,13 @@
         <v>22</v>
       </c>
       <c r="B325" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C325">
         <v>2201</v>
       </c>
       <c r="D325" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F325">
         <v>5.0999999999999996</v>
@@ -57413,13 +57408,13 @@
         <v>22</v>
       </c>
       <c r="B326" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C326">
         <v>2202</v>
       </c>
       <c r="D326" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F326">
         <v>3.2</v>
@@ -57583,13 +57578,13 @@
         <v>22</v>
       </c>
       <c r="B327" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C327">
         <v>2203</v>
       </c>
       <c r="D327" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F327">
         <v>2.8</v>
@@ -57753,13 +57748,13 @@
         <v>22</v>
       </c>
       <c r="B328" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C328">
         <v>2204</v>
       </c>
       <c r="D328" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F328">
         <v>2.5</v>
@@ -57923,13 +57918,13 @@
         <v>22</v>
       </c>
       <c r="B329" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C329">
         <v>2205</v>
       </c>
       <c r="D329" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F329">
         <v>3.2</v>
@@ -58093,13 +58088,13 @@
         <v>22</v>
       </c>
       <c r="B330" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C330">
         <v>2206</v>
       </c>
       <c r="D330" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F330">
         <v>2.8</v>
@@ -58263,13 +58258,13 @@
         <v>22</v>
       </c>
       <c r="B331" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C331">
         <v>2207</v>
       </c>
       <c r="D331" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F331">
         <v>2.6</v>
@@ -58433,13 +58428,13 @@
         <v>22</v>
       </c>
       <c r="B332" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C332">
         <v>2208</v>
       </c>
       <c r="D332" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F332">
         <v>3.2</v>
@@ -58603,13 +58598,13 @@
         <v>22</v>
       </c>
       <c r="B333" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C333">
         <v>2209</v>
       </c>
       <c r="D333" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F333">
         <v>3.3</v>
@@ -58770,13 +58765,13 @@
         <v>22</v>
       </c>
       <c r="B334" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C334">
         <v>2210</v>
       </c>
       <c r="D334" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F334">
         <v>2.1</v>
@@ -58937,13 +58932,13 @@
         <v>22</v>
       </c>
       <c r="B335" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C335">
         <v>2211</v>
       </c>
       <c r="D335" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F335">
         <v>1.7</v>
@@ -59107,13 +59102,13 @@
         <v>22</v>
       </c>
       <c r="B336" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C336">
         <v>2212</v>
       </c>
       <c r="D336" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F336">
         <v>3.6</v>
@@ -59277,13 +59272,13 @@
         <v>22</v>
       </c>
       <c r="B337" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C337">
         <v>2213</v>
       </c>
       <c r="D337" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F337">
         <v>1.9</v>
@@ -59447,13 +59442,13 @@
         <v>22</v>
       </c>
       <c r="B338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C338">
         <v>2214</v>
       </c>
       <c r="D338" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F338">
         <v>7.4</v>
@@ -59617,13 +59612,13 @@
         <v>22</v>
       </c>
       <c r="B339" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C339">
         <v>2215</v>
       </c>
       <c r="D339" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F339">
         <v>4.7</v>
@@ -59784,13 +59779,13 @@
         <v>22</v>
       </c>
       <c r="B340" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C340">
         <v>2216</v>
       </c>
       <c r="D340" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F340">
         <v>2.2999999999999998</v>
@@ -59954,13 +59949,13 @@
         <v>22</v>
       </c>
       <c r="B341" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C341">
         <v>2217</v>
       </c>
       <c r="D341" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F341">
         <v>2.2000000000000002</v>
@@ -60126,10 +60121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D848B0-3CA2-4469-9732-8CB3DF69403F}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60188,10 +60183,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -60217,10 +60212,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -60246,10 +60241,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
@@ -60275,11 +60270,9 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>174</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="H5" t="s">
         <v>23</v>
       </c>
@@ -60304,10 +60297,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -60333,10 +60326,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -60362,7 +60352,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -60388,7 +60378,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
@@ -60414,10 +60404,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -60443,10 +60433,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -60472,10 +60462,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
@@ -60501,10 +60491,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
         <v>16</v>
@@ -60530,10 +60520,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -60559,11 +60549,9 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" t="s">
-        <v>174</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G15" s="12"/>
       <c r="H15" t="s">
         <v>29</v>
       </c>
@@ -60588,11 +60576,9 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G16" s="12"/>
       <c r="H16" t="s">
         <v>29</v>
       </c>
@@ -60608,7 +60594,7 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>545</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -60617,10 +60603,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -60637,7 +60623,7 @@
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -60646,11 +60632,9 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" t="s">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G18" s="12"/>
       <c r="H18" t="s">
         <v>27</v>
       </c>
@@ -60666,7 +60650,7 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -60675,11 +60659,9 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" t="s">
-        <v>174</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G19" s="12"/>
       <c r="H19" t="s">
         <v>27</v>
       </c>
@@ -60691,11 +60673,11 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>200</v>
+      <c r="B20" t="s">
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -60704,11 +60686,9 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" t="s">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G20" s="12"/>
       <c r="H20" t="s">
         <v>27</v>
       </c>
@@ -60724,7 +60704,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -60733,11 +60713,9 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G21" s="12"/>
       <c r="H21" t="s">
         <v>30</v>
       </c>
@@ -60753,7 +60731,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -60762,11 +60740,9 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G22" s="12"/>
       <c r="H22" t="s">
         <v>30</v>
       </c>
@@ -60782,7 +60758,7 @@
         <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -60791,11 +60767,9 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G23" s="12"/>
       <c r="H23" t="s">
         <v>30</v>
       </c>
@@ -60811,7 +60785,7 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -60820,11 +60794,9 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G24" s="12"/>
       <c r="H24" t="s">
         <v>30</v>
       </c>
@@ -60840,7 +60812,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -60849,11 +60821,9 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G25" s="12"/>
       <c r="H25" t="s">
         <v>30</v>
       </c>
@@ -60869,7 +60839,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -60878,11 +60848,9 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G26" s="12"/>
       <c r="H26" t="s">
         <v>30</v>
       </c>
@@ -60898,7 +60866,7 @@
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -60907,11 +60875,9 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G27" s="12"/>
       <c r="H27" t="s">
         <v>30</v>
       </c>
@@ -60927,7 +60893,7 @@
         <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -60936,11 +60902,9 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G28" s="12"/>
       <c r="H28" t="s">
         <v>30</v>
       </c>
@@ -60956,7 +60920,7 @@
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -60965,11 +60929,9 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G29" s="12"/>
       <c r="H29" t="s">
         <v>19</v>
       </c>
@@ -60985,7 +60947,7 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -60994,11 +60956,9 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G30" s="12"/>
       <c r="H30" t="s">
         <v>19</v>
       </c>
@@ -61014,7 +60974,7 @@
         <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -61023,7 +60983,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
@@ -61040,7 +61000,7 @@
         <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -61049,11 +61009,9 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" t="s">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G32" s="12"/>
       <c r="H32" t="s">
         <v>19</v>
       </c>
@@ -61069,7 +61027,7 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33">
         <v>-1</v>
@@ -61078,10 +61036,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
         <v>31</v>
@@ -61098,7 +61056,7 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34">
         <v>-1</v>
@@ -61107,11 +61065,9 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G34" t="s">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G34" s="12"/>
       <c r="H34" t="s">
         <v>31</v>
       </c>
@@ -61127,7 +61083,7 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -61136,11 +61092,9 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" t="s">
-        <v>174</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G35" s="12"/>
       <c r="H35" t="s">
         <v>31</v>
       </c>
@@ -61156,7 +61110,7 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -61165,7 +61119,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
         <v>31</v>
@@ -61182,7 +61136,7 @@
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -61191,7 +61145,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H37" t="s">
         <v>32</v>
@@ -61208,7 +61162,7 @@
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -61217,7 +61171,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
@@ -61234,7 +61188,7 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -61243,7 +61197,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -61260,7 +61214,7 @@
         <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40">
         <v>-1</v>
@@ -61269,10 +61223,10 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H40" t="s">
         <v>32</v>
@@ -61289,7 +61243,7 @@
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -61298,10 +61252,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" t="s">
         <v>32</v>
@@ -61318,7 +61272,7 @@
         <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -61327,10 +61281,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
@@ -61347,7 +61301,7 @@
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -61356,10 +61310,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
@@ -61376,7 +61330,7 @@
         <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -61385,11 +61339,9 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" t="s">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G44" s="12"/>
       <c r="H44" t="s">
         <v>32</v>
       </c>
@@ -61405,7 +61357,7 @@
         <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -61414,11 +61366,9 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" t="s">
-        <v>178</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G45" s="12"/>
       <c r="H45" t="s">
         <v>32</v>
       </c>
@@ -61434,7 +61384,7 @@
         <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -61443,10 +61393,10 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -61463,7 +61413,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -61472,11 +61422,9 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" t="s">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G47" s="12"/>
       <c r="H47" t="s">
         <v>32</v>
       </c>
@@ -61492,7 +61440,7 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>-1</v>
@@ -61501,10 +61449,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H48" t="s">
         <v>34</v>
@@ -61521,7 +61469,7 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -61530,10 +61478,10 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49" t="s">
         <v>34</v>
@@ -61550,7 +61498,7 @@
         <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -61559,10 +61507,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H50" t="s">
         <v>34</v>
@@ -61579,7 +61527,7 @@
         <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -61588,10 +61536,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H51" t="s">
         <v>34</v>
@@ -61608,7 +61556,7 @@
         <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -61617,11 +61565,9 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" t="s">
-        <v>174</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G52" s="12"/>
       <c r="H52" t="s">
         <v>34</v>
       </c>
@@ -61637,7 +61583,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -61646,11 +61592,9 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" t="s">
-        <v>174</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G53" s="12"/>
       <c r="H53" t="s">
         <v>34</v>
       </c>
@@ -61666,7 +61610,7 @@
         <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -61675,11 +61619,9 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" t="s">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G54" s="12"/>
       <c r="H54" t="s">
         <v>34</v>
       </c>
@@ -61695,7 +61637,7 @@
         <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -61704,7 +61646,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H55" t="s">
         <v>20</v>
@@ -61721,7 +61663,7 @@
         <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -61730,10 +61672,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -61750,7 +61692,7 @@
         <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -61759,7 +61701,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
@@ -61776,7 +61718,7 @@
         <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -61785,7 +61727,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -61802,7 +61744,7 @@
         <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -61811,7 +61753,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -61828,7 +61770,7 @@
         <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -61837,7 +61779,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H60" t="s">
         <v>21</v>
@@ -61854,7 +61796,7 @@
         <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -61863,11 +61805,9 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" t="s">
-        <v>174</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="G61" s="12"/>
       <c r="H61" t="s">
         <v>21</v>
       </c>
@@ -61880,10 +61820,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -61895,7 +61835,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>22</v>
+        <v>546</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -61906,10 +61846,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -62218,10 +62158,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>546</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -62244,10 +62184,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -62270,10 +62210,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -62293,13 +62233,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -62310,30 +62250,42 @@
       <c r="F78" t="s">
         <v>10</v>
       </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
       <c r="I78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>40</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -62344,10 +62296,10 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -62358,10 +62310,10 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -62372,10 +62324,10 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -62386,10 +62338,10 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -62400,10 +62352,10 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -62414,10 +62366,10 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -62428,7 +62380,7 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" t="s">
         <v>190</v>
@@ -62442,33 +62394,48 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
-        <v>543</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>542</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I89" xr:uid="{66D848B0-3CA2-4469-9732-8CB3DF69403F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I89">
-      <sortCondition ref="A1:A89"/>
+  <autoFilter ref="A1:I90" xr:uid="{66D848B0-3CA2-4469-9732-8CB3DF69403F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I90">
+      <sortCondition ref="A1:A90"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -62476,8 +62443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08350711-97B0-4E6F-A66A-4FCB610A36C0}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62489,10 +62456,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>41</v>
@@ -62536,7 +62503,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>100</v>
@@ -62580,7 +62547,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>23</v>
@@ -62624,7 +62591,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -62668,7 +62635,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
@@ -62717,7 +62684,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">

--- a/data_input/data_input_formatted.xlsx
+++ b/data_input/data_input_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42dcc5b33b6ca4b2/Work/Guatemala/MVI_Guatemala/data_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FD0C7348-8CCC-40D8-B4D9-89A656AC9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E449216D-D884-40CD-A0BA-70367A0A369F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FD0C7348-8CCC-40D8-B4D9-89A656AC9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DEF6EF-5480-4BD0-B597-3285BB504942}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" activeTab="1" xr2:uid="{F725EFB9-CB3E-497E-B5BF-C7123ECF1AC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F725EFB9-CB3E-497E-B5BF-C7123ECF1AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="iData" sheetId="3" r:id="rId1"/>
@@ -3193,17 +3193,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D099658A-32B7-475F-AF63-D07765A62010}">
   <dimension ref="A1:BF342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BM24" sqref="BM24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>3797.5190565776238</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>48.221084272246493</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>46.37417264974551</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>395.01186823641336</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>93.463992914368532</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>47.664981516910409</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>45.980820757254286</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>56.45460904538465</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>82.04544568670029</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>39.897544543904516</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>77.877540204961406</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>583.89928461356101</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>239.47259069087207</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>808.17507384148701</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>511.09504628996598</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>53.540877055223554</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>19.008647419898818</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>1761.5537814786219</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>157.92761610886936</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>84.437809371536545</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>409.36053281269682</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>289.16346361684805</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>157.4718239964711</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>137.76764045210058</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>135.09955023364486</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>3219.7308865986361</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>48.125253277711558</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>62.184607598799658</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>97.853506575235457</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>46.573232099619503</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>247.87875507003406</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>92.298113862531821</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>52.670699885492205</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>64.405555619331878</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>49.714053736487543</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>35.01757816877732</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>50.186715922945623</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>62.645053335046903</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>136.78134096484055</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>63.466175684177415</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>126.08799956226744</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>1196.8412398884238</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>105.76903867997848</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>60.350324432990796</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>75.182783799680692</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>57.839711472894649</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>256.30710292088628</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>72.284394567447123</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>282.74109481827992</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>74.365692948334328</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>93.669880721220522</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>124.66653693211809</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>81.993698906364912</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>87.490261920369363</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>234.21931111441748</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>120.21443168139766</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>25.891022070868182</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1076.6249472332381</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>69.15254779347498</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>157.97598490448587</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>66.476274766283225</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>83.038543602349904</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>668.12530620289488</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>98.557864873162686</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>119.47855826277288</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>66.084256156611119</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>103.62767665207006</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>44.662245967515318</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>120.67460488663878</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>69.589911489173119</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>4347.5836058244986</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>164.27919546816418</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>131.96481811814149</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>356.17980851145478</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>343.59214440433215</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>177.66629614604463</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>242.76169590643275</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>208.05633904209893</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>151.69820168158691</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>193.17723475917816</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>262.75923593278372</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>161.76416783216783</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>165.26071146916854</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>182.23903604337423</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>7</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1118.4189888326296</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>243.26642911877394</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>206.06120292083014</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>228.63135337310695</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>7</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>83.84099250595996</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>95.224899304762218</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>45.331165377176013</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>126.35237039090657</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>7</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>46.996327972545593</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>7</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>265.52464505310229</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>7</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>101.96327939369111</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>62.406565515490094</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>119.59158056909291</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>7</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>195.73815809475551</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>244.59623938030984</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>19.125027173913043</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>55.753850746268654</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>514.48133581332434</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>177.33145962455967</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>8</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>1074.4588947545394</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>221.35708223676548</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>8</v>
       </c>
@@ -17987,7 +17987,7 @@
         <v>165.68148044138519</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>252.67997319843209</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>102.55965045287778</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>195.27935605417699</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>209.34549828580333</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>348.92463921663057</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>9</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>1812.0849191734292</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>9</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>90.608263594383189</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>9</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>76.493346474953626</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>9</v>
       </c>
@@ -19214,7 +19214,7 @@
         <v>140.50788836526795</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>339.66112556053815</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>202.19049025974024</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>362.76902699309477</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>9</v>
       </c>
@@ -19759,7 +19759,7 @@
         <v>82.122841154122597</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>9</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>95.569711683129469</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>9</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>55.578882580059052</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>9</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>41.758266213262083</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>9</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>82.747906795183624</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>9</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>56.818247513682103</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9</v>
       </c>
@@ -20575,7 +20575,7 @@
         <v>63.195754990689821</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>9</v>
       </c>
@@ -20709,7 +20709,7 @@
         <v>134.06566055733461</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>9</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>129.09868812671647</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>9</v>
       </c>
@@ -20980,7 +20980,7 @@
         <v>68.531836858871117</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>125.32839533417402</v>
       </c>
     </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>105.03752855593135</v>
       </c>
     </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>810.09708641063526</v>
       </c>
     </row>
-    <row r="134" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>85.263641730992106</v>
       </c>
     </row>
-    <row r="135" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -21662,7 +21662,7 @@
         <v>109.12760022980017</v>
       </c>
     </row>
-    <row r="136" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -21799,7 +21799,7 @@
         <v>40.913068473086781</v>
       </c>
     </row>
-    <row r="137" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>122.97983661724541</v>
       </c>
     </row>
-    <row r="138" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>1373.1801130887054</v>
       </c>
     </row>
-    <row r="139" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>10</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>106.07764562657138</v>
       </c>
     </row>
-    <row r="140" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>12.603008520776966</v>
       </c>
     </row>
-    <row r="141" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>13.011975452951489</v>
       </c>
     </row>
-    <row r="142" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>10</v>
       </c>
@@ -22615,7 +22615,7 @@
         <v>164.08950653241243</v>
       </c>
     </row>
-    <row r="143" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>10</v>
       </c>
@@ -22752,7 +22752,7 @@
         <v>68.379528315412188</v>
       </c>
     </row>
-    <row r="144" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>10</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>16.960116295764539</v>
       </c>
     </row>
-    <row r="145" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>19.439336608415211</v>
       </c>
     </row>
-    <row r="146" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>10</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>21.01504713205869</v>
       </c>
     </row>
-    <row r="147" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>10</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>89.192589884123905</v>
       </c>
     </row>
-    <row r="148" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>10</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>6.0829090180360712</v>
       </c>
     </row>
-    <row r="149" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10</v>
       </c>
@@ -23568,7 +23568,7 @@
         <v>17.73718262806236</v>
       </c>
     </row>
-    <row r="150" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>108.4294623404006</v>
       </c>
     </row>
-    <row r="151" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>112.04489361702127</v>
       </c>
     </row>
-    <row r="152" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -23979,7 +23979,7 @@
         <v>89.858855204273141</v>
       </c>
     </row>
-    <row r="153" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>24.854892598894089</v>
       </c>
     </row>
-    <row r="154" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>240.91925156249999</v>
       </c>
     </row>
-    <row r="155" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>23.406716921692169</v>
       </c>
     </row>
-    <row r="156" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>200.61175295186194</v>
       </c>
     </row>
-    <row r="157" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>58.839797463501895</v>
       </c>
     </row>
-    <row r="158" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>47.299733711917732</v>
       </c>
     </row>
-    <row r="159" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>877.72915240824125</v>
       </c>
     </row>
-    <row r="160" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>51.647748340059884</v>
       </c>
     </row>
-    <row r="161" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11</v>
       </c>
@@ -25200,7 +25200,7 @@
         <v>289.70736956252324</v>
       </c>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
@@ -25337,7 +25337,7 @@
         <v>232.85514434091948</v>
       </c>
     </row>
-    <row r="163" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>39.201436186186186</v>
       </c>
     </row>
-    <row r="164" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>11</v>
       </c>
@@ -25611,7 +25611,7 @@
         <v>89.302063681769539</v>
       </c>
     </row>
-    <row r="165" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>131.45858413274564</v>
       </c>
     </row>
-    <row r="166" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>74.388257936886262</v>
       </c>
     </row>
-    <row r="167" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>75.363467341327606</v>
       </c>
     </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>12</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>2407.087286775934</v>
       </c>
     </row>
-    <row r="169" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>12</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>180.82077295700995</v>
       </c>
     </row>
-    <row r="170" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>12</v>
       </c>
@@ -26430,7 +26430,7 @@
         <v>148.08942888444318</v>
       </c>
     </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12</v>
       </c>
@@ -26567,7 +26567,7 @@
         <v>157.11939500322532</v>
       </c>
     </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>12</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>143.12438572409062</v>
       </c>
     </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>12</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>108.10791057548315</v>
       </c>
     </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>12</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>157.58315671487225</v>
       </c>
     </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
@@ -27112,7 +27112,7 @@
         <v>380.67477415197141</v>
       </c>
     </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>12</v>
       </c>
@@ -27246,7 +27246,7 @@
         <v>147.90900591436005</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>12</v>
       </c>
@@ -27383,7 +27383,7 @@
         <v>203.18990206231987</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>12</v>
       </c>
@@ -27520,7 +27520,7 @@
         <v>189.69536780732346</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>12</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>199.28276589089089</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
@@ -27794,7 +27794,7 @@
         <v>129.13295489413932</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12</v>
       </c>
@@ -27928,7 +27928,7 @@
         <v>306.84574661099941</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>12</v>
       </c>
@@ -28065,7 +28065,7 @@
         <v>545.33957344627606</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12</v>
       </c>
@@ -28202,7 +28202,7 @@
         <v>117.58907780714154</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12</v>
       </c>
@@ -28339,7 +28339,7 @@
         <v>131.31374382855788</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>12</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>347.5069544458359</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>12</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>141.1395028439014</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>12</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>188.84877163164401</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>12</v>
       </c>
@@ -28884,7 +28884,7 @@
         <v>203.17654551587469</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12</v>
       </c>
@@ -29021,7 +29021,7 @@
         <v>169.79661171291701</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -29158,7 +29158,7 @@
         <v>267.67229719971112</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>12</v>
       </c>
@@ -29292,7 +29292,7 @@
         <v>238.33533951159521</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>12</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>121.15102351698448</v>
       </c>
     </row>
-    <row r="193" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>12</v>
       </c>
@@ -29563,7 +29563,7 @@
         <v>188.22360249358269</v>
       </c>
     </row>
-    <row r="194" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>12</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>146.36599015551434</v>
       </c>
     </row>
-    <row r="195" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>12</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>161.20047493837305</v>
       </c>
     </row>
-    <row r="196" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12</v>
       </c>
@@ -29971,7 +29971,7 @@
         <v>310.59353851615197</v>
       </c>
     </row>
-    <row r="197" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>12</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>2.0986970589092606</v>
       </c>
     </row>
-    <row r="198" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>13</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>1628.7536091888314</v>
       </c>
     </row>
-    <row r="199" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>13</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>102.48521994829815</v>
       </c>
     </row>
-    <row r="200" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>106.81867826631481</v>
       </c>
     </row>
-    <row r="201" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -30656,7 +30656,7 @@
         <v>143.58358803284625</v>
       </c>
     </row>
-    <row r="202" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -30793,7 +30793,7 @@
         <v>126.33954577968527</v>
       </c>
     </row>
-    <row r="203" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13</v>
       </c>
@@ -30930,7 +30930,7 @@
         <v>931.29167462715657</v>
       </c>
     </row>
-    <row r="204" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>191.07110776446785</v>
       </c>
     </row>
-    <row r="205" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>120.49292657442295</v>
       </c>
     </row>
-    <row r="206" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13</v>
       </c>
@@ -31341,7 +31341,7 @@
         <v>158.2078102176618</v>
       </c>
     </row>
-    <row r="207" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>101.99881329584161</v>
       </c>
     </row>
-    <row r="208" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13</v>
       </c>
@@ -31612,7 +31612,7 @@
         <v>104.90016430796246</v>
       </c>
     </row>
-    <row r="209" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13</v>
       </c>
@@ -31749,7 +31749,7 @@
         <v>117.8581400563919</v>
       </c>
     </row>
-    <row r="210" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>96.934891719030517</v>
       </c>
     </row>
-    <row r="211" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13</v>
       </c>
@@ -32020,7 +32020,7 @@
         <v>143.24609815486176</v>
       </c>
     </row>
-    <row r="212" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -32157,7 +32157,7 @@
         <v>103.53772064860428</v>
       </c>
     </row>
-    <row r="213" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13</v>
       </c>
@@ -32291,7 +32291,7 @@
         <v>168.80731897932864</v>
       </c>
     </row>
-    <row r="214" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
@@ -32428,7 +32428,7 @@
         <v>128.92001978568769</v>
       </c>
     </row>
-    <row r="215" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>13</v>
       </c>
@@ -32562,7 +32562,7 @@
         <v>122.92356328101059</v>
       </c>
     </row>
-    <row r="216" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>13</v>
       </c>
@@ -32696,7 +32696,7 @@
         <v>113.52232144875765</v>
       </c>
     </row>
-    <row r="217" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>13</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>106.66885464854222</v>
       </c>
     </row>
-    <row r="218" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>13</v>
       </c>
@@ -32967,7 +32967,7 @@
         <v>356.67477467537981</v>
       </c>
     </row>
-    <row r="219" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>13</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>165.45844744686988</v>
       </c>
     </row>
-    <row r="220" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>13</v>
       </c>
@@ -33238,7 +33238,7 @@
         <v>97.395875885020729</v>
       </c>
     </row>
-    <row r="221" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>13</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>137.56608839015053</v>
       </c>
     </row>
-    <row r="222" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>13</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>84.242784820000765</v>
       </c>
     </row>
-    <row r="223" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>13</v>
       </c>
@@ -33649,7 +33649,7 @@
         <v>285.25830853119163</v>
       </c>
     </row>
-    <row r="224" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13</v>
       </c>
@@ -33786,7 +33786,7 @@
         <v>214.6019172702234</v>
       </c>
     </row>
-    <row r="225" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>13</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>141.5615335615893</v>
       </c>
     </row>
-    <row r="226" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>13</v>
       </c>
@@ -34054,7 +34054,7 @@
         <v>170.92751696454172</v>
       </c>
     </row>
-    <row r="227" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -34188,7 +34188,7 @@
         <v>130.76282338134527</v>
       </c>
     </row>
-    <row r="228" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13</v>
       </c>
@@ -34325,7 +34325,7 @@
         <v>259.98413575525814</v>
       </c>
     </row>
-    <row r="229" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13</v>
       </c>
@@ -34462,7 +34462,7 @@
         <v>107.09446190849089</v>
       </c>
     </row>
-    <row r="230" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>140.89386999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>14</v>
       </c>
@@ -34736,7 +34736,7 @@
         <v>1520.3497182319886</v>
       </c>
     </row>
-    <row r="232" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>165.78015710700009</v>
       </c>
     </row>
-    <row r="233" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14</v>
       </c>
@@ -35010,7 +35010,7 @@
         <v>223.15736989739426</v>
       </c>
     </row>
-    <row r="234" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>14</v>
       </c>
@@ -35147,7 +35147,7 @@
         <v>195.26292353073521</v>
       </c>
     </row>
-    <row r="235" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>14</v>
       </c>
@@ -35281,7 +35281,7 @@
         <v>416.75768411541935</v>
       </c>
     </row>
-    <row r="236" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>14</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>108.24421646834337</v>
       </c>
     </row>
-    <row r="237" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -35552,7 +35552,7 @@
         <v>200.3462912546552</v>
       </c>
     </row>
-    <row r="238" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>217.55883650855364</v>
       </c>
     </row>
-    <row r="239" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14</v>
       </c>
@@ -35820,7 +35820,7 @@
         <v>92.486549355093445</v>
       </c>
     </row>
-    <row r="240" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14</v>
       </c>
@@ -35957,7 +35957,7 @@
         <v>121.94874899470899</v>
       </c>
     </row>
-    <row r="241" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14</v>
       </c>
@@ -36091,7 +36091,7 @@
         <v>267.78268857788305</v>
       </c>
     </row>
-    <row r="242" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14</v>
       </c>
@@ -36228,7 +36228,7 @@
         <v>284.58541919839456</v>
       </c>
     </row>
-    <row r="243" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>721.25535663052324</v>
       </c>
     </row>
-    <row r="244" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14</v>
       </c>
@@ -36499,7 +36499,7 @@
         <v>256.77574315141976</v>
       </c>
     </row>
-    <row r="245" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14</v>
       </c>
@@ -36636,7 +36636,7 @@
         <v>398.37733985237861</v>
       </c>
     </row>
-    <row r="246" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14</v>
       </c>
@@ -36773,7 +36773,7 @@
         <v>127.38591483447055</v>
       </c>
     </row>
-    <row r="247" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14</v>
       </c>
@@ -36907,7 +36907,7 @@
         <v>275.19564999683081</v>
       </c>
     </row>
-    <row r="248" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14</v>
       </c>
@@ -37044,7 +37044,7 @@
         <v>179.33047705124176</v>
       </c>
     </row>
-    <row r="249" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>14</v>
       </c>
@@ -37181,7 +37181,7 @@
         <v>111.7530816662417</v>
       </c>
     </row>
-    <row r="250" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>14</v>
       </c>
@@ -37318,7 +37318,7 @@
         <v>496.70820539077647</v>
       </c>
     </row>
-    <row r="251" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>14</v>
       </c>
@@ -37455,7 +37455,7 @@
         <v>209.5195564312418</v>
       </c>
     </row>
-    <row r="252" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15</v>
       </c>
@@ -37592,7 +37592,7 @@
         <v>1178.9353729818965</v>
       </c>
     </row>
-    <row r="253" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15</v>
       </c>
@@ -37729,7 +37729,7 @@
         <v>106.93508427195006</v>
       </c>
     </row>
-    <row r="254" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15</v>
       </c>
@@ -37866,7 +37866,7 @@
         <v>388.1156370257051</v>
       </c>
     </row>
-    <row r="255" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15</v>
       </c>
@@ -38003,7 +38003,7 @@
         <v>159.63791455948896</v>
       </c>
     </row>
-    <row r="256" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15</v>
       </c>
@@ -38140,7 +38140,7 @@
         <v>196.47664449777167</v>
       </c>
     </row>
-    <row r="257" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>15</v>
       </c>
@@ -38274,7 +38274,7 @@
         <v>264.79164193393973</v>
       </c>
     </row>
-    <row r="258" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>15</v>
       </c>
@@ -38408,7 +38408,7 @@
         <v>131.85155502983653</v>
       </c>
     </row>
-    <row r="259" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>15</v>
       </c>
@@ -38545,7 +38545,7 @@
         <v>85.499385981022343</v>
       </c>
     </row>
-    <row r="260" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16</v>
       </c>
@@ -38682,7 +38682,7 @@
         <v>851.44173542840156</v>
       </c>
     </row>
-    <row r="261" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -38819,7 +38819,7 @@
         <v>99.762560343385928</v>
       </c>
     </row>
-    <row r="262" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16</v>
       </c>
@@ -38956,7 +38956,7 @@
         <v>172.68584124148711</v>
       </c>
     </row>
-    <row r="263" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16</v>
       </c>
@@ -39093,7 +39093,7 @@
         <v>148.78145170522299</v>
       </c>
     </row>
-    <row r="264" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16</v>
       </c>
@@ -39227,7 +39227,7 @@
         <v>179.39345769923088</v>
       </c>
     </row>
-    <row r="265" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16</v>
       </c>
@@ -39361,7 +39361,7 @@
         <v>131.42861117105807</v>
       </c>
     </row>
-    <row r="266" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16</v>
       </c>
@@ -39495,7 +39495,7 @@
         <v>155.44297398319827</v>
       </c>
     </row>
-    <row r="267" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>16</v>
       </c>
@@ -39629,7 +39629,7 @@
         <v>112.02531989909122</v>
       </c>
     </row>
-    <row r="268" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>16</v>
       </c>
@@ -39766,7 +39766,7 @@
         <v>63.497467706642198</v>
       </c>
     </row>
-    <row r="269" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>16</v>
       </c>
@@ -39903,7 +39903,7 @@
         <v>110.87382305221143</v>
       </c>
     </row>
-    <row r="270" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>16</v>
       </c>
@@ -40037,7 +40037,7 @@
         <v>261.2542808180483</v>
       </c>
     </row>
-    <row r="271" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>16</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>107.98156866369932</v>
       </c>
     </row>
-    <row r="272" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>16</v>
       </c>
@@ -40311,7 +40311,7 @@
         <v>80.326264375400626</v>
       </c>
     </row>
-    <row r="273" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>16</v>
       </c>
@@ -40445,7 +40445,7 @@
         <v>248.22780230196344</v>
       </c>
     </row>
-    <row r="274" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>16</v>
       </c>
@@ -40582,7 +40582,7 @@
         <v>463.04906529218448</v>
       </c>
     </row>
-    <row r="275" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>16</v>
       </c>
@@ -40716,7 +40716,7 @@
         <v>398.08939902059376</v>
       </c>
     </row>
-    <row r="276" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>16</v>
       </c>
@@ -40853,7 +40853,7 @@
         <v>57.963169551553847</v>
       </c>
     </row>
-    <row r="277" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>17</v>
       </c>
@@ -40987,7 +40987,7 @@
         <v>1598.0712087410752</v>
       </c>
     </row>
-    <row r="278" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>17</v>
       </c>
@@ -41124,7 +41124,7 @@
         <v>652.31986948069982</v>
       </c>
     </row>
-    <row r="279" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>17</v>
       </c>
@@ -41261,7 +41261,7 @@
         <v>1290.4586029673812</v>
       </c>
     </row>
-    <row r="280" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>17</v>
       </c>
@@ -41398,7 +41398,7 @@
         <v>49.221431172821937</v>
       </c>
     </row>
-    <row r="281" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>17</v>
       </c>
@@ -41535,7 +41535,7 @@
         <v>187.23367361864769</v>
       </c>
     </row>
-    <row r="282" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>17</v>
       </c>
@@ -41672,7 +41672,7 @@
         <v>225.32137595846163</v>
       </c>
     </row>
-    <row r="283" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>17</v>
       </c>
@@ -41809,7 +41809,7 @@
         <v>272.90276577969001</v>
       </c>
     </row>
-    <row r="284" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>17</v>
       </c>
@@ -41946,7 +41946,7 @@
         <v>313.54475037418928</v>
       </c>
     </row>
-    <row r="285" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>17</v>
       </c>
@@ -42083,7 +42083,7 @@
         <v>158.67672532826177</v>
       </c>
     </row>
-    <row r="286" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>17</v>
       </c>
@@ -42220,7 +42220,7 @@
         <v>650.19680681321586</v>
       </c>
     </row>
-    <row r="287" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>17</v>
       </c>
@@ -42357,7 +42357,7 @@
         <v>948.13052286505001</v>
       </c>
     </row>
-    <row r="288" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>17</v>
       </c>
@@ -42494,7 +42494,7 @@
         <v>1007.964238787113</v>
       </c>
     </row>
-    <row r="289" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>17</v>
       </c>
@@ -42631,7 +42631,7 @@
         <v>62.853111722134315</v>
       </c>
     </row>
-    <row r="290" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>17</v>
       </c>
@@ -42768,7 +42768,7 @@
         <v>90.709392859457012</v>
       </c>
     </row>
-    <row r="291" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>18</v>
       </c>
@@ -42905,7 +42905,7 @@
         <v>1523.9698042328996</v>
       </c>
     </row>
-    <row r="292" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>18</v>
       </c>
@@ -43042,7 +43042,7 @@
         <v>136.57527832122517</v>
       </c>
     </row>
-    <row r="293" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -43179,7 +43179,7 @@
         <v>81.595006243105317</v>
       </c>
     </row>
-    <row r="294" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>18</v>
       </c>
@@ -43316,7 +43316,7 @@
         <v>148.45461173184358</v>
       </c>
     </row>
-    <row r="295" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>18</v>
       </c>
@@ -43453,7 +43453,7 @@
         <v>105.35563253150058</v>
       </c>
     </row>
-    <row r="296" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>19</v>
       </c>
@@ -43590,7 +43590,7 @@
         <v>1767.8641670806799</v>
       </c>
     </row>
-    <row r="297" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>19</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v>247.26570272259016</v>
       </c>
     </row>
-    <row r="298" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>19</v>
       </c>
@@ -43864,7 +43864,7 @@
         <v>142.31343782073213</v>
       </c>
     </row>
-    <row r="299" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>19</v>
       </c>
@@ -44001,7 +44001,7 @@
         <v>212.04477358224869</v>
       </c>
     </row>
-    <row r="300" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>19</v>
       </c>
@@ -44138,7 +44138,7 @@
         <v>144.99281471981058</v>
       </c>
     </row>
-    <row r="301" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>19</v>
       </c>
@@ -44272,7 +44272,7 @@
         <v>192.90398489996224</v>
       </c>
     </row>
-    <row r="302" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>19</v>
       </c>
@@ -44409,7 +44409,7 @@
         <v>247.53195923601268</v>
       </c>
     </row>
-    <row r="303" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>19</v>
       </c>
@@ -44546,7 +44546,7 @@
         <v>231.87936109674081</v>
       </c>
     </row>
-    <row r="304" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>19</v>
       </c>
@@ -44683,7 +44683,7 @@
         <v>158.69229719543577</v>
       </c>
     </row>
-    <row r="305" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>19</v>
       </c>
@@ -44817,7 +44817,7 @@
         <v>181.48806921221197</v>
       </c>
     </row>
-    <row r="306" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>19</v>
       </c>
@@ -44951,7 +44951,7 @@
         <v>80.788178927911289</v>
       </c>
     </row>
-    <row r="307" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>20</v>
       </c>
@@ -45088,7 +45088,7 @@
         <v>1015.493388123235</v>
       </c>
     </row>
-    <row r="308" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>20</v>
       </c>
@@ -45222,7 +45222,7 @@
         <v>284.15545008183307</v>
       </c>
     </row>
-    <row r="309" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>20</v>
       </c>
@@ -45356,7 +45356,7 @@
         <v>224.60224425490301</v>
       </c>
     </row>
-    <row r="310" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>20</v>
       </c>
@@ -45493,7 +45493,7 @@
         <v>133.89631970710565</v>
       </c>
     </row>
-    <row r="311" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>20</v>
       </c>
@@ -45630,7 +45630,7 @@
         <v>184.90791133053085</v>
       </c>
     </row>
-    <row r="312" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>20</v>
       </c>
@@ -45764,7 +45764,7 @@
         <v>184.65790920546493</v>
       </c>
     </row>
-    <row r="313" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>20</v>
       </c>
@@ -45901,7 +45901,7 @@
         <v>136.03690629833076</v>
       </c>
     </row>
-    <row r="314" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>20</v>
       </c>
@@ -46038,7 +46038,7 @@
         <v>222.15528470176</v>
       </c>
     </row>
-    <row r="315" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>20</v>
       </c>
@@ -46175,7 +46175,7 @@
         <v>122.26094082044385</v>
       </c>
     </row>
-    <row r="316" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>20</v>
       </c>
@@ -46309,7 +46309,7 @@
         <v>130.72781157998037</v>
       </c>
     </row>
-    <row r="317" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>20</v>
       </c>
@@ -46446,7 +46446,7 @@
         <v>296.02972719989879</v>
       </c>
     </row>
-    <row r="318" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>21</v>
       </c>
@@ -46583,7 +46583,7 @@
         <v>518.32297912773413</v>
       </c>
     </row>
-    <row r="319" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>21</v>
       </c>
@@ -46720,7 +46720,7 @@
         <v>100.05947731293578</v>
       </c>
     </row>
-    <row r="320" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>21</v>
       </c>
@@ -46854,7 +46854,7 @@
         <v>166.05282363622607</v>
       </c>
     </row>
-    <row r="321" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>21</v>
       </c>
@@ -46991,7 +46991,7 @@
         <v>284.38838716838717</v>
       </c>
     </row>
-    <row r="322" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>21</v>
       </c>
@@ -47128,7 +47128,7 @@
         <v>199.37966396667437</v>
       </c>
     </row>
-    <row r="323" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>21</v>
       </c>
@@ -47265,7 +47265,7 @@
         <v>146.8163548134109</v>
       </c>
     </row>
-    <row r="324" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>21</v>
       </c>
@@ -47402,7 +47402,7 @@
         <v>145.45440626481107</v>
       </c>
     </row>
-    <row r="325" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>22</v>
       </c>
@@ -47539,7 +47539,7 @@
         <v>1135.5985765372188</v>
       </c>
     </row>
-    <row r="326" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>22</v>
       </c>
@@ -47676,7 +47676,7 @@
         <v>369.28776932428724</v>
       </c>
     </row>
-    <row r="327" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>22</v>
       </c>
@@ -47813,7 +47813,7 @@
         <v>160.16433711030024</v>
       </c>
     </row>
-    <row r="328" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>22</v>
       </c>
@@ -47950,7 +47950,7 @@
         <v>232.7853898363087</v>
       </c>
     </row>
-    <row r="329" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>22</v>
       </c>
@@ -48087,7 +48087,7 @@
         <v>236.1544602680022</v>
       </c>
     </row>
-    <row r="330" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>22</v>
       </c>
@@ -48224,7 +48224,7 @@
         <v>177.83595149975142</v>
       </c>
     </row>
-    <row r="331" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>22</v>
       </c>
@@ -48361,7 +48361,7 @@
         <v>317.63671338933307</v>
       </c>
     </row>
-    <row r="332" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>22</v>
       </c>
@@ -48498,7 +48498,7 @@
         <v>273.24290588235294</v>
       </c>
     </row>
-    <row r="333" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>22</v>
       </c>
@@ -48632,7 +48632,7 @@
         <v>447.72197022451678</v>
       </c>
     </row>
-    <row r="334" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>22</v>
       </c>
@@ -48766,7 +48766,7 @@
         <v>312.3677102669601</v>
       </c>
     </row>
-    <row r="335" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>22</v>
       </c>
@@ -48903,7 +48903,7 @@
         <v>122.8498336634738</v>
       </c>
     </row>
-    <row r="336" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>22</v>
       </c>
@@ -49040,7 +49040,7 @@
         <v>134.54516463531363</v>
       </c>
     </row>
-    <row r="337" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>22</v>
       </c>
@@ -49177,7 +49177,7 @@
         <v>105.90427849560824</v>
       </c>
     </row>
-    <row r="338" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>22</v>
       </c>
@@ -49314,7 +49314,7 @@
         <v>133.63939726840854</v>
       </c>
     </row>
-    <row r="339" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>22</v>
       </c>
@@ -49448,7 +49448,7 @@
         <v>95.751168178144923</v>
       </c>
     </row>
-    <row r="340" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>22</v>
       </c>
@@ -49585,7 +49585,7 @@
         <v>242.17494297675762</v>
       </c>
     </row>
-    <row r="341" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>22</v>
       </c>
@@ -49722,7 +49722,7 @@
         <v>204.21966515683869</v>
       </c>
     </row>
-    <row r="342" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:58" x14ac:dyDescent="0.25">
       <c r="AX342">
         <f>MAX(AX2:AX341)</f>
         <v>1</v>
@@ -49741,20 +49741,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D848B0-3CA2-4469-9732-8CB3DF69403F}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -49783,7 +49783,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -49809,7 +49809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -49835,7 +49835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -49861,7 +49861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -49887,7 +49887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -49913,7 +49913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -49936,7 +49936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -49959,7 +49959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -49985,7 +49985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -50011,7 +50011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -50037,7 +50037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -50063,7 +50063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -50089,7 +50089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -50115,7 +50115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -50141,7 +50141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -50167,7 +50167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -50193,7 +50193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -50219,7 +50219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -50245,7 +50245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -50271,7 +50271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -50297,7 +50297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -50323,7 +50323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -50349,7 +50349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -50375,7 +50375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -50401,7 +50401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -50427,7 +50427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -50453,7 +50453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -50479,7 +50479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -50502,7 +50502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -50528,7 +50528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -50554,7 +50554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -50580,7 +50580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -50606,7 +50606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -50629,7 +50629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -50655,7 +50655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -50681,7 +50681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -50733,7 +50733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -50759,7 +50759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -50785,7 +50785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -50811,7 +50811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -50837,7 +50837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -50863,7 +50863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -50889,7 +50889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -50915,7 +50915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -50941,7 +50941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -50967,7 +50967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -50993,7 +50993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -51016,7 +51016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -51045,7 +51045,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -51068,7 +51068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -51091,7 +51091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -51114,7 +51114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -51140,7 +51140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -51166,7 +51166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -51192,7 +51192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -51218,7 +51218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -51244,7 +51244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -51270,7 +51270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -51296,7 +51296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -51322,7 +51322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -51348,7 +51348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -51374,7 +51374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -51400,7 +51400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -51426,7 +51426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -51452,7 +51452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -51478,7 +51478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -51504,7 +51504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -51530,7 +51530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -51556,7 +51556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -51582,7 +51582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -51608,7 +51608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -51631,7 +51631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>153</v>
       </c>
@@ -51642,7 +51642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>160</v>
       </c>
@@ -51672,14 +51672,14 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -51723,7 +51723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -51767,7 +51767,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -51811,7 +51811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -51855,7 +51855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -51899,12 +51899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -51912,7 +51912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -51948,7 +51948,7 @@
       </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -51978,7 +51978,7 @@
       </c>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -52008,7 +52008,7 @@
       </c>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -52038,7 +52038,7 @@
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -52068,7 +52068,7 @@
       </c>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -52098,7 +52098,7 @@
       </c>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -52128,7 +52128,7 @@
       </c>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>108</v>
       </c>
@@ -52155,7 +52155,7 @@
       </c>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>109</v>
       </c>
@@ -52182,7 +52182,7 @@
       </c>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>110</v>
       </c>
@@ -52209,7 +52209,7 @@
       </c>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>111</v>
       </c>
@@ -52236,7 +52236,7 @@
       </c>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>112</v>
       </c>
@@ -52263,7 +52263,7 @@
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <v>113</v>
       </c>
@@ -52290,7 +52290,7 @@
       </c>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <v>114</v>
       </c>
@@ -52317,7 +52317,7 @@
       </c>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <v>115</v>
       </c>
@@ -52344,7 +52344,7 @@
       </c>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>116</v>
       </c>
@@ -52371,7 +52371,7 @@
       </c>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>117</v>
       </c>

--- a/data_input/data_input_formatted.xlsx
+++ b/data_input/data_input_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42dcc5b33b6ca4b2/Work/Guatemala/MVI_Guatemala/data_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FD0C7348-8CCC-40D8-B4D9-89A656AC9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5DEF6EF-5480-4BD0-B597-3285BB504942}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FD0C7348-8CCC-40D8-B4D9-89A656AC9023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{813ED30D-15B9-4BFD-AA02-F45216DEE4A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F725EFB9-CB3E-497E-B5BF-C7123ECF1AC1}"/>
   </bookViews>
@@ -54,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Will Becker:</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2691,14 +2691,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3191,10 +3191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D099658A-32B7-475F-AF63-D07765A62010}">
-  <dimension ref="A1:BF342"/>
+  <dimension ref="A1:BF341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="AD305" workbookViewId="0">
+      <selection activeCell="BB328" sqref="BB328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49720,16 +49720,6 @@
       </c>
       <c r="BF341">
         <v>204.21966515683869</v>
-      </c>
-    </row>
-    <row r="342" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="AX342">
-        <f>MAX(AX2:AX341)</f>
-        <v>1</v>
-      </c>
-      <c r="AY342">
-        <f>MAX(AY2:AY341)</f>
-        <v>0.99106974995299868</v>
       </c>
     </row>
   </sheetData>
